--- a/medicine/Enfance/Les_Sœurs_Parker_trouvent_une_piste/Les_Sœurs_Parker_trouvent_une_piste.xlsx
+++ b/medicine/Enfance/Les_Sœurs_Parker_trouvent_une_piste/Les_Sœurs_Parker_trouvent_une_piste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_S%C5%93urs_Parker_trouvent_une_piste</t>
+          <t>Les_Sœurs_Parker_trouvent_une_piste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Sœurs Parker trouvent une piste (titre original : By the Light of the Study Lamp) est le premier roman de la série Une enquête des sœurs Parker (The Dana Girls en VO) écrit par Caroline Quine (Carolyn Keene en VO), alias Leslie McFarlane. Le roman a été publié pour la première fois en 1934 aux États-Unis par Grosset &amp; Dunlap, New York. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_S%C5%93urs_Parker_trouvent_une_piste</t>
+          <t>Les_Sœurs_Parker_trouvent_une_piste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est la rentrée des classes pour Ann et Liz Parker, élèves en 1re au Collège[1] de Starhust. Pour l’occasion, leur oncle Dick leur fait cadeau d’une très belle lampe ancienne pour leur bureau d'étude. Mais la lampe est convoitée par plusieurs personnes ; elle est même volée. Pour quelle raison ? La lampe aurait-elle un lien avec la famille de l'élève Evelyn Starr, à qui a autrefois appartenu le collège ? C’est ce que vont tenter de découvrir Ann et Liz.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est la rentrée des classes pour Ann et Liz Parker, élèves en 1re au Collège de Starhust. Pour l’occasion, leur oncle Dick leur fait cadeau d’une très belle lampe ancienne pour leur bureau d'étude. Mais la lampe est convoitée par plusieurs personnes ; elle est même volée. Pour quelle raison ? La lampe aurait-elle un lien avec la famille de l'élève Evelyn Starr, à qui a autrefois appartenu le collège ? C’est ce que vont tenter de découvrir Ann et Liz.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_S%C5%93urs_Parker_trouvent_une_piste</t>
+          <t>Les_Sœurs_Parker_trouvent_une_piste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Début de l’intrigue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De retour des vacances d’été, les sœurs Ann et Liz Parker reçoivent une lettre de leur oncle Dick, capitaine du transatlantique « Balaska ». Lui et sa sœur Harriet ont élevé les deux sœurs à la mort de leurs parents. Dans sa lettre, l’oncle Dick annonce son retour de croisière pour le lendemain et leur écrit qu’il leur a envoyé un cadeau qui devrait être livré sous peu. Et de fait, le jour même, un livreur apporte une très belle lampe de bureau  ancienne. Ann et Liz n’ont pas le temps de l’admirer car du premier étage de la maison leur parvient un fracas retentissant. C’est Cora, la bonne, femme maladroite au possible, qui vient de briser un miroir. Après s’être assurées que Cora n’est pas blessée, Ann et Liz retournent à la cuisine où elles ont laissé la lampe. Mais l’objet a disparu - volé ! À cet instant, le bruit d’un moteur de voiture qui démarre se fait entendre devant la maison. Les deux sœurs ont tout juste le temps de bondir dans leur propre voiture ; elles prennent en chasse le voleur. Hélas ! elles perdent de vue la voiture noire dans l’artère commerciale très chargée de Rockville. Elles décident néanmoins de scruter toutes les voitures qui stationnent le long des trottoirs. Leur persévérance finit par payer : la voiture qu’elles poursuivaient est garée devant la boutique d’un brocanteur, dont l'enseigne indique : « Joe Garrett ». Le propriétaire, homme rude et brutal, nie toute implication dans le vol de la lampe. Ann et Liz ne le croient pas, mais, n'ayant aucune preuve contre Joe Garrett, elles ne peuvent rien. En sortant de la boutique, les deux jeunes filles entr’aperçoivent un visage de femme désagréable qui les observe à la dérobée.
 Sur le chemin du retour, un piéton conduisant un chien en laisse, arrête le véhicule des sœurs Parker pour demander le chemin de la maison du commandant Parker. Très surprises, Ann et Liz n’ont pas le temps de lui répondre car au même moment, un camion arrive à toute allure dans le virage et percute le petit chien : l’animal est projeté dans les airs et échoue dans les chutes d’eau en contrebas de la chaussée. Son maître se précipite à son aide mais, ignorant qu’à cet endroit la berge s’arrête abruptement, il dégringole à son tour dans les eaux tumultueuses. Sa tête heurte un rocher et il perd connaissance. Liz se jette à l’eau pour le sauver : elle se ceint d’une corde que Anne maintient fermement depuis la rive. Liz parvient à sauver le malheureux inconnu, et Ann sauve le petit chien. Les jeunes filles emmènent chez elles l’homme toujours inconscient, et font venir un médecin. Celui-ci déclare qu'il se rétablira très vite.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_S%C5%93urs_Parker_trouvent_une_piste</t>
+          <t>Les_Sœurs_Parker_trouvent_une_piste</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liz, la sœur aîné de Ann parker : une brune de 17 ans, mature.
 Ann Parker, sœur cadette de Liz : une blonde de 16 ans un peu plus extravagante que sa sœur.
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_S%C5%93urs_Parker_trouvent_une_piste</t>
+          <t>Les_Sœurs_Parker_trouvent_une_piste</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Les différentes éditions françaises</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1966 : Hachette, Bibliothèque verte (français, version originale). Illustré par Philippe Daure. Texte français de Suzanne Pairault. 248 p.
 1983 : Hachette, Bibliothèque verte (français, version abrégée). Illustré par Philippe Daure. Texte français de Suzanne Pairault.</t>
